--- a/kirkkosaari_mallinnuksen_vaihtoehdot.xlsx
+++ b/kirkkosaari_mallinnuksen_vaihtoehdot.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="24">
   <si>
     <t>300 m</t>
   </si>
@@ -62,9 +62,6 @@
     <t>600 m</t>
   </si>
   <si>
-    <t>1000 &amp; 2000 m</t>
-  </si>
-  <si>
     <t>teräs/VIT</t>
   </si>
   <si>
@@ -80,12 +77,6 @@
     <t>Reiän halkaisija</t>
   </si>
   <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
     <t>Lämmönsiirtoneste</t>
   </si>
   <si>
@@ -101,7 +92,10 @@
     <t>koaksiaali/suljettu</t>
   </si>
   <si>
-    <t>200 / 125</t>
+    <t>1000 / 2000 m</t>
+  </si>
+  <si>
+    <t>5 / 10</t>
   </si>
 </sst>
 </file>
@@ -125,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,12 +129,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -166,10 +154,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,17 +434,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -478,10 +461,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -494,7 +477,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>114.3</v>
@@ -505,7 +488,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -560,13 +543,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.42</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -587,13 +570,13 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,9 +590,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>139.69999999999999</v>
@@ -618,9 +601,9 @@
         <v>139.69999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>50</v>
@@ -632,7 +615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -646,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -660,7 +643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -674,23 +657,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>0.42</v>
@@ -699,59 +682,53 @@
         <v>0.42</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>225</v>
@@ -759,16 +736,13 @@
       <c r="C29">
         <v>225</v>
       </c>
-      <c r="D29" s="5">
-        <v>225</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>124</v>
@@ -776,14 +750,11 @@
       <c r="C30">
         <v>125</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -793,14 +764,11 @@
       <c r="C31">
         <v>112.5</v>
       </c>
-      <c r="D31" s="5">
-        <v>112.5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -810,14 +778,11 @@
       <c r="C32">
         <v>62.5</v>
       </c>
-      <c r="D32" s="5">
-        <v>62.5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -827,31 +792,27 @@
       <c r="C33">
         <v>55.1</v>
       </c>
-      <c r="D33" s="5">
-        <v>55.1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>0.02</v>
@@ -859,9 +820,8 @@
       <c r="C35">
         <v>0.42</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" t="s">
-        <v>15</v>
+      <c r="D35" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
